--- a/xlsx/_wiki_拉格比公学_intext.xlsx
+++ b/xlsx/_wiki_拉格比公学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>拉格比公学</t>
   </si>
@@ -162,12 +162,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Rugby_School</t>
@@ -594,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1473,29 +1467,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" t="n">
-        <v>38</v>
-      </c>
-      <c r="E39" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/_wiki_拉格比公学_intext.xlsx
+++ b/xlsx/_wiki_拉格比公学_intext.xlsx
@@ -23,139 +23,139 @@
     <t>https://zh.wikipedia.org/zh-cn/%E6%8B%89%E6%A0%BC%E6%AF%94%E5%85%AC%E5%AD%A6</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%8B%B1%E8%AF%AD</t>
   </si>
   <si>
     <t>英语</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
     <t>英格兰</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E9%87%8C%E5%85%8B%E9%83%A1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B2%83%E9%87%8C%E5%85%8B%E9%83%A1</t>
   </si>
   <si>
     <t>沃里克郡</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A0%BC%E6%AF%94</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%8B%89%E6%A0%BC%E6%AF%94</t>
   </si>
   <si>
     <t>拉格比</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%84%E5%AE%BF%E5%AD%A6%E6%A0%A1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AF%84%E5%AE%BF%E5%AD%A6%E6%A0%A1</t>
   </si>
   <si>
     <t>寄宿学校</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%AD%A6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%AC%E5%AD%A6</t>
   </si>
   <si>
     <t>公学</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%AC%96%E7%90%83</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%A9%84%E6%AC%96%E7%90%83</t>
   </si>
   <si>
     <t>橄榄球</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%B6%AD%E7%88%BE%C2%B7%E5%BC%B5%E4%BC%AF%E5%80%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%A7%E7%B6%AD%E7%88%BE%C2%B7%E5%BC%B5%E4%BC%AF%E5%80%AB</t>
   </si>
   <si>
     <t>内维尔·张伯伦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
     <t>英国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%9B%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A6%96%E7%9B%B8</t>
   </si>
   <si>
     <t>首相</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E4%B8%81%C2%B7%E5%BC%A0%E4%BC%AF%E4%BC%A6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A5%A5%E6%96%AF%E4%B8%81%C2%B7%E5%BC%A0%E4%BC%AF%E4%BC%A6</t>
   </si>
   <si>
     <t>奥斯丁·张伯伦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E5%8D%A1%E7%BE%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E5%8D%A1%E7%BE%85</t>
   </si>
   <si>
     <t>路易斯·卡罗</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E9%BA%97%E7%B5%B2%E5%A4%A2%E9%81%8A%E4%BB%99%E5%A2%83</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%84%9B%E9%BA%97%E7%B5%B2%E5%A4%A2%E9%81%8A%E4%BB%99%E5%A2%83</t>
   </si>
   <si>
     <t>爱丽丝梦游仙境</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E6%9B%BC%C2%B7%E9%AD%AF%E8%A5%BF%E8%BF%AA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%96%A9%E7%88%BE%E6%9B%BC%C2%B7%E9%AD%AF%E8%A5%BF%E8%BF%AA</t>
   </si>
   <si>
     <t>萨尔曼·鲁西迪</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%90%86%E6%B5%A9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%BA%A5%E7%90%86%E6%B5%A9</t>
   </si>
   <si>
     <t>麦理浩</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A6%99%E6%B8%AF</t>
   </si>
   <si>
     <t>香港</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%B8%BD%E7%9D%A3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A6%99%E6%B8%AF%E7%B8%BD%E7%9D%A3</t>
   </si>
   <si>
     <t>香港总督</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E6%80%9D%E8%8F%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%99%BD%E6%80%9D%E8%8F%AF</t>
   </si>
   <si>
     <t>白思华</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%99%B8%E8%BB%8D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%8B%B1%E5%9C%8B%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
     <t>英国陆军</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%80%E8%A5%BF%C2%B7%E5%A1%9E%E5%85%8B%E6%96%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8F%80%E8%A5%BF%C2%B7%E5%A1%9E%E5%85%8B%E6%96%AF</t>
   </si>
   <si>
     <t>珀西·塞克斯</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E7%93%A6%E4%B8%81%E9%A1%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A8%81%E5%BB%89%C2%B7%E7%93%A6%E4%B8%81%E9%A1%BF</t>
   </si>
   <si>
     <t>威廉·瓦丁顿</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E7%B8%BD%E7%90%86</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B3%95%E5%9C%8B%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
     <t>法国总理</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A0%BC%E6%AF%94%E5%85%AC%E5%AD%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%8B%89%E6%A0%BC%E6%AF%94%E5%85%AC%E5%AD%B8</t>
   </si>
   <si>
     <t>浏览条目正文[c]</t>
